--- a/USA_economy_headlines.xlsx
+++ b/USA_economy_headlines.xlsx
@@ -12,6 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet13" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet14" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet15" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet16" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1552,4 +1553,940 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2023-01-05 07:54:00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>The Dollar Will Weaken, But Not Yet</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>64.12037037037037</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2023-01-10 06:31:30</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>S.Korea logs current account deficit of 620 mln USD in November 2022</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>48.95833333333333</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2023-01-11 21:22:00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>U.S. dollar edges down ahead of inflation data</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>46.88289141414141</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2023-01-05 14:37:00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Can Dollar General Get Big Spenders Into Its New Store Concept?</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>53.22671156004489</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2023-01-04 04:00:00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>S.Korea's foreign reserves keep rising for 2nd month in December</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>47.56944444444444</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-01-09 00:09:00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Why a strong U.S. dollar is bad for ‘the rest of the world'</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>51.97916666666666</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2023-01-09 20:51:00</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>U.S. dollar dips on bets of slower Fed rate hikes</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>45.28566919191919</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2023-01-10 18:37:25</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Small towns where a vacation home will cost you big</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>70.53571428571428</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2023-01-10 02:15:00</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>U.S. dollar dips on bets of slower Fed rate hikes</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>45.28566919191919</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2023-01-10 20:42:00</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>U.S. dollar rises ahead of inflation data</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>49.4303613053613</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2023-01-03 21:13:00</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>U.S. dollar jumps ahead of Fed minutes</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>47.28456439393939</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2023-01-03 21:14:15</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>U.S. dollar jumps ahead of Fed minutes</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>47.28456439393939</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2023-01-12 20:50:00</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>U.S. dollar skids after inflation report</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>45.0094696969697</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2023-01-09 00:09:37</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Why a strong U.S. dollar is bad for 'the rest of the world'</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>51.97916666666666</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2023-01-12 05:00:00</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>S.Korea's ICT products export hits record high in 2022</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>53.85185185185185</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2023-01-06 15:47:00</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Dollar dips after US jobs report, wage growth below expectations</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>51.4983164983165</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2023-01-06 20:56:00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>U.S. dollar tumbles after jobs report, services data</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>50.84122474747475</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2023-01-05 22:30:00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>U.S. dollar firms after solid employment data</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>49.38289141414142</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2023-01-12 19:40:00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Attorney General wants Dollar General to correct pricing problem immediately</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>48.75</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2023-01-12 05:00:00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>S.Korea's foreign exchange trading rises in 2022</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>50.02604166666666</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2023-01-11 01:05:17</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Dollar stands firm while traders await CPI</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2023-01-11 01:03:57</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>FOREX-Dollar stands firm while traders await CPI</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>61.36363636363637</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2023-01-12 11:04:50</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>The dollar could bring investors a nasty surprise</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>51.3095238095238</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2023-01-05 20:54:00</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>U.S. dollar firms after solid employment data</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>49.38289141414142</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2023-01-11 01:06:41</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>FOREX-Dollar stands firm while traders await CPI</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2023-01-10 08:06:00</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>S.Korean builders' overseas orders top 30 bln USD for 3rd year in 2022</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>48.17708333333333</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2023-01-11 01:05:17</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Dollar stands firm while traders await CPI</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>58.14393939393939</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2023-01-04 03:53:55</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>FOREX-Euro finds footing, dollar wobbles toward Fed minutes</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>56.00000000000001</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2023-01-11 01:11:13</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Dollar stands firm while traders await CPI</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>58.33333333333334</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2023-01-10 03:30:00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Market exchange rates in China -- Jan. 10</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>50.36931818181818</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2023-01-05 07:45:00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>S.Korean households increase savings deposits on higher interest rates</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>51.07142857142857</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2023-01-09 04:00:00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Market exchange rates in China -- Jan. 9</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>50.36931818181818</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2023-01-05 05:15:00</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Market exchange rates in China -- Jan. 5</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>50.36931818181818</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2023-01-04 01:58:30</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Market exchange rates in China -- Jan. 4</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>50.36931818181818</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2023-01-06 05:15:00</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Market exchange rates in China -- Jan. 6</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>50.36931818181818</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2023-01-11 02:02:00</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Dollar stands firm while traders await CPI</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>58.14393939393939</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2023-01-11 01:12:26</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Dollar Stands Firm While Traders Await CPI</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>61.36363636363637</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2023-01-04 20:57:00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>U.S. dollar slips after Fed minutes</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>54.17527548209367</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2023-01-11 03:33:00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Dollar stands firm amid low bond yields, traders await consumer price data</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>61.36363636363637</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2023-01-04 04:00:41</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Euro Finds Footing, Dollar Wobbles Toward Fed Minutes</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>56.00000000000001</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2023-01-11 18:40:40</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Netflix stock soars on the dollar's slide</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>59.01515151515151</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2023-01-11 01:05:17</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Dollar stands firm while traders await CPI</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>61.36363636363637</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2023-01-03 06:28:17</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>FDI in S.Korea hits record high in 2022</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>52.33333333333333</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2023-01-06 14:50:21</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>FOREX-Dollar dips after U.S. jobs report, wage growth eases</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>54.46969696969697</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2023-01-11 03:40:18</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Dollar stands firm while traders await CPI</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>58.14393939393939</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2023-01-12 15:15:17</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>4 Surprising Ways Dollar Stores Aren't Always the Cheapest</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>62.5625</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2023-01-06 00:42:38</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Dollar's Vice Grip On FX Markets To Loosen This Year</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>63.125</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>2023-01-10 13:39:00</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Rupee gains nearly 100 paise in two days to below 82 against dollar</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>56.94444444444444</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>2023-01-12 11:04:50</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>The dollar could bring investors a nasty surprise</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>51.3095238095238</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2023-01-11 01:05:17</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>U.S. dollar holds firm ahead of U.S. inflation data</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>52.59523809523809</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>